--- a/reports/corpus_wicaksono-unigram_bigram_trigram-fold-4.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram_trigram-fold-4.xlsx
@@ -597,97 +597,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.987220447284345</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8923076923076924</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="H2" t="n">
         <v>0.9795918367346939</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8589743589743589</v>
+        <v>0.9835164835164835</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8405797101449275</v>
+        <v>0.9927536231884058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="M2" t="n">
-        <v>0.832579185520362</v>
+        <v>0.9864253393665159</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3345724907063197</v>
+        <v>0.7955390334572491</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8383838383838383</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9901144640998959</v>
+        <v>0.9781477627471384</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4575342465753425</v>
+        <v>0.6356164383561644</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5754716981132075</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8685714285714285</v>
+        <v>0.96</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3058823529411765</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4270462633451957</v>
+        <v>0.8220640569395018</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.25</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.782803180914513</v>
+        <v>0.9244532803180915</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5306162472188463</v>
+        <v>0.8169471861093104</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8857141958998938</v>
+        <v>0.9393418779045335</v>
       </c>
     </row>
     <row r="3">
@@ -700,25 +700,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9886363636363636</v>
+        <v>0.9948186528497409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9981412639405205</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -727,67 +727,67 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="M3" t="n">
-        <v>0.997289972899729</v>
+        <v>0.9931662870159453</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9727272727272728</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5989927604658483</v>
+        <v>0.8289241622574955</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.912568306010929</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9918699186991869</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9710982658959537</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9797297297297297</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.782803180914513</v>
+        <v>0.9244532803180915</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7554261171335913</v>
+        <v>0.8675430802930032</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.782803180914513</v>
+        <v>0.9244532803180915</v>
       </c>
     </row>
     <row r="4">
@@ -797,97 +797,97 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9935691318327975</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9983305509181971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9380053908355795</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="H4" t="n">
         <v>0.9504950495049506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9241379310344827</v>
+        <v>0.9907749077490774</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9133858267716535</v>
+        <v>0.9963636363636363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9075215782983971</v>
+        <v>0.9897843359818389</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.8752556237218814</v>
       </c>
       <c r="O4" t="n">
-        <v>0.907103825136612</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7464208668366347</v>
+        <v>0.8973747016706445</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6094890510948905</v>
+        <v>0.7412140575079873</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7283582089552239</v>
+        <v>0.9584352078239609</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9184290030211482</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.9119496855345911</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.8962172647914646</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.782803180914513</v>
+        <v>0.9244532803180915</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5970734300297563</v>
+        <v>0.8375574282256882</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7944355176112617</v>
+        <v>0.9272227050769433</v>
       </c>
     </row>
     <row r="5">
@@ -897,91 +897,91 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E5" t="n">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
         <v>52</v>
       </c>
       <c r="I5" t="n">
+        <v>538</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>137</v>
+      </c>
+      <c r="L5" t="n">
+        <v>31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>439</v>
+      </c>
+      <c r="N5" t="n">
+        <v>220</v>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+      <c r="P5" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2268</v>
+      </c>
+      <c r="R5" t="n">
+        <v>31</v>
+      </c>
+      <c r="S5" t="n">
+        <v>261</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>80</v>
+      </c>
+      <c r="X5" t="n">
+        <v>197</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>173</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>148</v>
+      </c>
+      <c r="AB5" t="n">
         <v>469</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>116</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" t="n">
-        <v>369</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91</v>
-      </c>
-      <c r="O5" t="n">
-        <v>84</v>
-      </c>
-      <c r="P5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3177</v>
-      </c>
-      <c r="R5" t="n">
-        <v>18</v>
-      </c>
-      <c r="S5" t="n">
-        <v>183</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>64</v>
-      </c>
-      <c r="X5" t="n">
-        <v>123</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>156</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>54</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>242</v>
-      </c>
       <c r="AC5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.782803180914513</v>
+        <v>0.9244532803180915</v>
       </c>
       <c r="AE5" t="n">
         <v>6036</v>
